--- a/src/assets/docs/bulkProducts_all_ean_configured_example.xlsx
+++ b/src/assets/docs/bulkProducts_all_ean_configured_example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t>hierarchyL1</t>
   </si>
@@ -160,9 +160,6 @@
     <t>entity</t>
   </si>
   <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -247,66 +244,12 @@
     <t>Mid range</t>
   </si>
   <si>
-    <t>‎Wired</t>
-  </si>
-  <si>
     <t>advancePayment</t>
   </si>
   <si>
-    <t>Studio Lite gaming over-the-ear wired headphones with Hi-Fi stereo sound output, integrated volume control wheel for enhanced music, calls and gaming experience.~170 degree adjustable HD mic can transmit high-quality communication with its passive noise-canceling function which enables you clearly deliver or receive messages while you are in a game.~Superior comfort and good air permeability protein over-ear pads, muti-points head beam and skin-friendly ABS + faux leather material for a longer period of wearing.~Large 40MM Dynamic Driver for Natural Audio; Extendable Headband for the Perfect Position; Over-the-Ear Design Reduces External Noises; Durable 1.3 Meter Tangle-free Cable; Universal 3.5mm Aux Jack</t>
-  </si>
-  <si>
-    <t>Studio Lite</t>
-  </si>
-  <si>
-    <t>Ptron</t>
-  </si>
-  <si>
-    <t>Parude Technology (Shenzhen) Co. Ltd.</t>
-  </si>
-  <si>
-    <t>Black &amp; Blue</t>
-  </si>
-  <si>
-    <t>205 Grams</t>
-  </si>
-  <si>
-    <t>‎43.5 x 31.5 x 42.5 cm</t>
-  </si>
-  <si>
-    <t>‎Ergonomic Over-Ear Wired Headphones; Stereo Sound Quality; 40mm Large Drivers; Adjustable Boom Mic for Enhanced Voice Quality; Passive Noise Cancellation for Immersive Audio; Memory Protein Earmuffs; In-line Volume Controller; Universal 3.5mm Aux Jack for Wide Compatibility; 1.3 Meter Long Tangle-Free Cable; Suitable for Work from Home, Online Classes, Gaming, Calls, Music &amp; E-learning</t>
-  </si>
-  <si>
-    <t>1*Headset, 1*User Manual</t>
-  </si>
-  <si>
-    <t>‎Omnidirectional</t>
-  </si>
-  <si>
-    <t>Over Ear, On Ear</t>
-  </si>
-  <si>
-    <t>‎Faux Leather, Plastic</t>
-  </si>
-  <si>
     <t>cableFeature</t>
   </si>
   <si>
-    <t>Tangle Free</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>5.0V 2.4A MAX.</t>
-  </si>
-  <si>
     <t>specText</t>
   </si>
   <si>
@@ -316,103 +259,124 @@
     <t>laterCompCategory</t>
   </si>
   <si>
-    <t>Test Earphone Product</t>
-  </si>
-  <si>
     <t>Charging Cable</t>
   </si>
   <si>
     <t>Powerbank</t>
   </si>
   <si>
-    <t>Wired Earphones</t>
-  </si>
-  <si>
-    <t>Test Powerbank Product</t>
-  </si>
-  <si>
-    <t>Test Charging Cable Product</t>
-  </si>
-  <si>
-    <t>20000mAh Lithium Polymer battery~18W Fast Charging~Triple port output~Dual input port (Micro-USB/USB-C, Charging Time : 6.9 hours!~Power Delivery~Advanced 12 Layer chip protection~Smart power management~6 months domestic warranty</t>
-  </si>
-  <si>
-    <t>Mi Power Bank 3i</t>
-  </si>
-  <si>
-    <t>‎PLM18ZM</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Xiaomi</t>
-  </si>
-  <si>
-    <t>22-09-20210</t>
-  </si>
-  <si>
-    <t>434 Grams</t>
-  </si>
-  <si>
-    <t>15.1 x 7.2 x 2.6 cm</t>
-  </si>
-  <si>
     <t>1 Lithium Polymer batteries required. (included)</t>
   </si>
   <si>
-    <t>Slim Fit, Travel, Universal</t>
-  </si>
-  <si>
-    <t>‎1 Power Bank, 1 USB Cable &amp; 1 User Manual</t>
-  </si>
-  <si>
-    <t>‎Corded Electric</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>batterCapacity</t>
   </si>
   <si>
-    <t>20000 Milliampere Hour (mAh)</t>
-  </si>
-  <si>
-    <t>‎Lithium Polymer</t>
-  </si>
-  <si>
     <t>batteryCellComposition</t>
   </si>
   <si>
-    <t>High Compatibility : Compatible With iPhone 12, 11, X/XsMax/Xr ,iPhone 8/8 Plus,iPhone 7/7 Plus,iPhone 6s/6s Plus,iPhone 6/6 Plus,iPhone 5/5s/5c/se,iPad Pro,iPad Air 1/2,iPad mini 1/2/3,iPod nano7,iPod touch and more apple devices.~Fast Charge&amp;Data Sync : It can charge and sync simultaneously at a rapid speed, Compatible with any charging adaptor, multi-port charging station or power bank.~Durability : Durable nylon braided design with premium aluminum housing and toughened nylon fiber wound tightly around the cord lending it superior durability and adding a bit to its flexibility.~High Security Level : It is designed to fully protect your device from damaging excessive current.Copper core thick+Multilayer shielding, Anti-interference, Protective circuit equipment.~WARRANTY: 12 months warranty and friendly customer services, ensures the long-time enjoyment of your purchase. If you meet any question or problem, please don't hesitate to contact us.</t>
-  </si>
-  <si>
-    <t>‎WNLB</t>
-  </si>
-  <si>
-    <t>Wayona</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>141 Grams</t>
-  </si>
-  <si>
-    <t>11.8 x 10.9 x 3.7 cm</t>
-  </si>
-  <si>
-    <t>Data Sync, Nylon Braided, Copper core thick+Multilayer shielding, Fast Charger</t>
-  </si>
-  <si>
-    <t>‎No</t>
-  </si>
-  <si>
-    <t>Nylon</t>
-  </si>
-  <si>
-    <t>Nylon Braided</t>
+    <t>Mobile &amp; Tablets</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Lenovo Tab P11 Plus Tablet</t>
+  </si>
+  <si>
+    <t>11 inch 2K (2000*1200) display| NTSC 70%| Colour Depth 16.7 million| 400 nits brightness| PPI 213~Dual Tone Metal Body| 7.5 mm thin| Android 11 OS~Mediatek Helio G90T octa core processor| 6 GB RAM| 128 GB ROM expandable upto 256 GB| 7700 mAH battery| 15 hours playback time~Quad speakers optimized with Dolby Atmos| Dual Microphone Array| Smart Voice DSP| Face Unlock technology|~13 MP Auto-Focus with Flash Rear Camera| 8 MP Fixed Focus Front Camera| 1 year warranty</t>
+  </si>
+  <si>
+    <t>‎LG 840G</t>
+  </si>
+  <si>
+    <t>‎Lenovo</t>
+  </si>
+  <si>
+    <t>‎Slate Grey</t>
+  </si>
+  <si>
+    <t>490 Grams</t>
+  </si>
+  <si>
+    <t>25.8 x 0.8 x 16.3 cm</t>
+  </si>
+  <si>
+    <t>Android 11</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>processorBrand</t>
+  </si>
+  <si>
+    <t>‎MediaTek</t>
+  </si>
+  <si>
+    <t>Soundbar</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>GOVO GOSURROUND 610 100 Watt 2.1 Channel with HDMI, Optical &amp; LED Display Wireless Bluetooth Soundbar</t>
+  </si>
+  <si>
+    <t>Its enthralling 2.1-channel 3D sound transports you to another world, with an ethereal sound quality that adds richness to both your audio and visual experience.~Multiple connectivity options through HDMI, Aux, USB, OPT, nothing can stop you from enjoying cinema-like experience right at your home~100W RMS DSP enabled 3D, High definition Signature Sound puts you right at the heart of the action~Enjoy your theatre experience with a powerful 5.25 inch GOVO subwoofer~Switch through your choice modes of entertainment such as Movies, News, Music &amp; 3D with a sleekly designed remote control~Explosive dual 2.25-inch drivers to drive the sound from every direction~Wireless Bluetooth version 5.0 so that you can play your favorite video or songs right from your phone</t>
+  </si>
+  <si>
+    <t>‎GOSURROUND 610</t>
+  </si>
+  <si>
+    <t>‎GOVO</t>
+  </si>
+  <si>
+    <t>GOVO, DPAC Ventures LLP</t>
+  </si>
+  <si>
+    <t>Platinum Black</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>4.5 Kilograms</t>
+  </si>
+  <si>
+    <t>‎80 x 7 x 6 cm</t>
+  </si>
+  <si>
+    <t>‎Wireless Bluetooth, Subwoofer, Remote Control, 2.1 Channel, Multiple connectivity - HDMI, Aux, USB, OPT, LED Display</t>
+  </si>
+  <si>
+    <t>‎1- Soundbar , 1 - Subwoofer , 1- Aux Cable , 1 - Audio cable , 1 - user Manuel , 1- Remote control , 1- Warrenty card</t>
+  </si>
+  <si>
+    <t>audioOutputMode</t>
+  </si>
+  <si>
+    <t>‎Surround</t>
+  </si>
+  <si>
+    <t>speakerSurroundSoundChannelConfiguration</t>
+  </si>
+  <si>
+    <t>speakerAmplificationType</t>
+  </si>
+  <si>
+    <t>‎100 Watts</t>
+  </si>
+  <si>
+    <t>Wireless, Bluetooth, Auxiliary, USB, HDMI</t>
+  </si>
+  <si>
+    <t>mountingType</t>
+  </si>
+  <si>
+    <t>Tabletop</t>
   </si>
 </sst>
 </file>
@@ -488,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,9 +463,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -509,13 +470,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY7"/>
+  <dimension ref="A1:CD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BO3" sqref="BO3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +791,10 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
@@ -847,42 +806,42 @@
     <col min="18" max="18" width="17.140625" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
     <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="31" customWidth="1"/>
-    <col min="29" max="29" width="23.7109375" customWidth="1"/>
-    <col min="30" max="30" width="28.7109375" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="23.7109375" customWidth="1"/>
-    <col min="33" max="33" width="21.7109375" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" customWidth="1"/>
-    <col min="36" max="36" width="24.140625" customWidth="1"/>
-    <col min="37" max="37" width="20" customWidth="1"/>
-    <col min="38" max="38" width="20.42578125" customWidth="1"/>
-    <col min="39" max="63" width="29" customWidth="1"/>
-    <col min="64" max="64" width="22.42578125" customWidth="1"/>
-    <col min="65" max="65" width="24.7109375" customWidth="1"/>
-    <col min="66" max="66" width="19.7109375" customWidth="1"/>
-    <col min="67" max="67" width="15" customWidth="1"/>
-    <col min="68" max="68" width="20.5703125" customWidth="1"/>
-    <col min="69" max="69" width="21.5703125" customWidth="1"/>
-    <col min="70" max="70" width="22.140625" customWidth="1"/>
-    <col min="71" max="71" width="18.85546875" customWidth="1"/>
-    <col min="72" max="72" width="18.85546875" style="12" customWidth="1"/>
-    <col min="73" max="73" width="21" customWidth="1"/>
-    <col min="74" max="74" width="33.28515625" customWidth="1"/>
-    <col min="75" max="75" width="24.85546875" style="6" customWidth="1"/>
-    <col min="76" max="76" width="18" customWidth="1"/>
-    <col min="77" max="77" width="23.85546875" customWidth="1"/>
+    <col min="21" max="22" width="28.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="31" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="31" max="31" width="28.7109375" customWidth="1"/>
+    <col min="32" max="32" width="23" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" customWidth="1"/>
+    <col min="34" max="34" width="21.7109375" customWidth="1"/>
+    <col min="35" max="36" width="18.28515625" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" customWidth="1"/>
+    <col min="38" max="38" width="24.140625" customWidth="1"/>
+    <col min="39" max="39" width="20" customWidth="1"/>
+    <col min="40" max="40" width="20.42578125" customWidth="1"/>
+    <col min="41" max="68" width="29" customWidth="1"/>
+    <col min="69" max="69" width="22.42578125" customWidth="1"/>
+    <col min="70" max="70" width="24.7109375" customWidth="1"/>
+    <col min="71" max="71" width="19.7109375" customWidth="1"/>
+    <col min="72" max="72" width="15" customWidth="1"/>
+    <col min="73" max="73" width="20.5703125" customWidth="1"/>
+    <col min="74" max="74" width="21.5703125" customWidth="1"/>
+    <col min="75" max="75" width="22.140625" customWidth="1"/>
+    <col min="76" max="76" width="18.85546875" customWidth="1"/>
+    <col min="77" max="77" width="18.85546875" style="10" customWidth="1"/>
+    <col min="78" max="78" width="21" customWidth="1"/>
+    <col min="79" max="79" width="33.28515625" customWidth="1"/>
+    <col min="80" max="80" width="24.85546875" style="5" customWidth="1"/>
+    <col min="81" max="81" width="18" customWidth="1"/>
+    <col min="82" max="82" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -947,502 +906,388 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2400000011</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2400000013</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>2022</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="6">
+        <v>44747</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT2">
+        <v>39000</v>
+      </c>
+      <c r="BU2">
+        <v>25998</v>
+      </c>
+      <c r="BV2">
+        <v>1000</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>2400000011</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2400000012</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2400000014</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2400000103</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2400000006</v>
-      </c>
-      <c r="H2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2">
-        <v>2021</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="7">
-        <v>44296</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO2">
-        <v>1299</v>
-      </c>
-      <c r="BP2">
-        <v>1099</v>
-      </c>
-      <c r="BQ2">
-        <v>1000</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>6941399034723</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="6">
-        <v>6941399037601</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2400000005</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
+      <c r="K3" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="L3">
         <v>2022</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="6">
+        <v>44721</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="R3" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="AA3" t="s">
         <v>111</v>
       </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="AJ3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BD3" s="8"/>
+      <c r="BL3" t="s">
         <v>112</v>
       </c>
-      <c r="R3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ3">
-        <v>20000</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR3" t="s">
+      <c r="BM3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT3">
+        <v>16000</v>
+      </c>
+      <c r="BU3">
+        <v>5999</v>
+      </c>
+      <c r="BV3">
+        <v>1000</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>2400000012</v>
+      </c>
+      <c r="CC3" t="s">
         <v>50</v>
       </c>
-      <c r="AS3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO3">
-        <v>2199</v>
-      </c>
-      <c r="BP3">
-        <v>1899</v>
-      </c>
-      <c r="BQ3">
-        <v>1000</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BW3" s="6">
-        <v>6941399037601</v>
-      </c>
-      <c r="BX3" t="s">
+      <c r="CD3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BY3" s="5" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2400000007</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4">
-        <v>2018</v>
-      </c>
-      <c r="M4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="7">
-        <v>43388</v>
-      </c>
-      <c r="P4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO4">
-        <v>1099</v>
-      </c>
-      <c r="BP4">
-        <v>399</v>
-      </c>
-      <c r="BW4" s="6">
-        <v>6941399037601</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY4" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="BY5" s="5"/>
-    </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="BY6" s="5"/>
-    </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="BY7" s="5"/>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CD4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/docs/bulkProducts_all_ean_configured_example.xlsx
+++ b/src/assets/docs/bulkProducts_all_ean_configured_example.xlsx
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>2400000011</v>
       </c>
       <c r="G2" s="5">
-        <v>2400000013</v>
+        <v>2400000018</v>
       </c>
       <c r="H2" t="s">
         <v>89</v>
@@ -1201,7 +1201,7 @@
         <v>2400000012</v>
       </c>
       <c r="G3" s="5">
-        <v>2400000014</v>
+        <v>240000001456</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
